--- a/tabulka.xlsx
+++ b/tabulka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c590b6d156e9df95/Documents/Zadania/^NSTU/Metódy inžinierskej práce/MIP_clanok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_AD4D80C4656A4B7AC02E740A339C69F45BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B06C9C1C-F299-47D9-BFDA-9177AC0A7D1C}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_AD4D80C4656A4B7AC02E740A339C69F45BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A86BC9-089A-4493-974C-977FF319998C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Úrovne automatizovanej jazdy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nulová automatizácia</t>
   </si>
@@ -108,54 +105,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF3E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBEBD1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF60933D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -165,18 +120,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFECF4FA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6DCF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81B2DF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4B91D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -185,14 +164,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -200,87 +207,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -292,76 +219,53 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -370,6 +274,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF4B91D1"/>
+      <color rgb="FF3886CC"/>
+      <color rgb="FF327CC0"/>
+      <color rgb="FF81B2DF"/>
+      <color rgb="FF609ED6"/>
+      <color rgb="FFC6DCF0"/>
+      <color rgb="FFE3EFF9"/>
+      <color rgb="FFECF4FA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -644,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,71 +571,78 @@
     <col min="1" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="16" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="10"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
+  <mergeCells count="2">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:F4"/>
   </mergeCells>
